--- a/output/5Y_P30_KFSDIV.xlsx
+++ b/output/5Y_P30_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.962</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2659</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4103</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.3976</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9013</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3527</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8804</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6268</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3636</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8711</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1252</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1934</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1176</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3311</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3637</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6447</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.486</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.1958</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.4264</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>17.107</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.8894</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4004</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3877</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6367</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0061</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.835</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.4216</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.2404</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.382</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>11.9583</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2036</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9136</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.4338</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9657</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3568</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2487</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3991</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.5985</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.6955</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3398</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.8469</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.129</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.716</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.4613</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.6545</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.2345</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.1636</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.8145</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.2352</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.8241</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.2543</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.5675</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>9.967000000000001</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.0064</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.0129</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.4583</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.3341</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.884600000000001</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.967499999999999</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.4908</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.6308</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.962</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2659</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4103</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.3976</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9013</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3527</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8804</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6268</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3636</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8711</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1252</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1934</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1176</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3311</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3637</v>
@@ -5144,10 +5147,10 @@
         <v>165953.6239</v>
       </c>
       <c r="K16" s="1">
-        <v>123869.3365</v>
+        <v>123874.0463</v>
       </c>
       <c r="L16" s="1">
-        <v>13.5375</v>
+        <v>13.538</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6447</v>
@@ -5197,10 +5200,10 @@
         <v>168894.5581</v>
       </c>
       <c r="K17" s="1">
-        <v>133609.9567</v>
+        <v>133614.6666</v>
       </c>
       <c r="L17" s="1">
-        <v>13.6576</v>
+        <v>13.6581</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.486</v>
@@ -5250,10 +5253,10 @@
         <v>196822.2564</v>
       </c>
       <c r="K18" s="1">
-        <v>150698.3511</v>
+        <v>150703.061</v>
       </c>
       <c r="L18" s="1">
-        <v>13.7657</v>
+        <v>13.7662</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.1958</v>
@@ -5303,10 +5306,10 @@
         <v>214611.1834</v>
       </c>
       <c r="K19" s="1">
-        <v>151510.1941</v>
+        <v>151514.9039</v>
       </c>
       <c r="L19" s="1">
-        <v>13.7741</v>
+        <v>13.7745</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.4264</v>
@@ -5356,10 +5359,10 @@
         <v>227165.9017</v>
       </c>
       <c r="K20" s="1">
-        <v>153726.8746</v>
+        <v>153731.5844</v>
       </c>
       <c r="L20" s="1">
-        <v>13.8042</v>
+        <v>13.8046</v>
       </c>
       <c r="M20" s="1">
         <v>0.75</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>17.107</v>
@@ -5409,10 +5412,10 @@
         <v>252524.9342</v>
       </c>
       <c r="K21" s="1">
-        <v>161193.1078</v>
+        <v>161197.8176</v>
       </c>
       <c r="L21" s="1">
-        <v>13.9081</v>
+        <v>13.9085</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.8894</v>
@@ -5462,10 +5465,10 @@
         <v>259971.9975</v>
       </c>
       <c r="K22" s="1">
-        <v>163329.7939</v>
+        <v>163334.5037</v>
       </c>
       <c r="L22" s="1">
-        <v>13.9425</v>
+        <v>13.9429</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4004</v>
@@ -5515,10 +5518,10 @@
         <v>274384.8953</v>
       </c>
       <c r="K23" s="1">
-        <v>175924.5018</v>
+        <v>175929.2116</v>
       </c>
       <c r="L23" s="1">
-        <v>14.1205</v>
+        <v>14.1209</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3877</v>
@@ -5568,10 +5571,10 @@
         <v>270735.3408</v>
       </c>
       <c r="K24" s="1">
-        <v>192068.9254</v>
+        <v>192073.6352</v>
       </c>
       <c r="L24" s="1">
-        <v>14.2896</v>
+        <v>14.2899</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6367</v>
@@ -5621,10 +5624,10 @@
         <v>269415.4887</v>
       </c>
       <c r="K25" s="1">
-        <v>215748.5396</v>
+        <v>215753.2494</v>
       </c>
       <c r="L25" s="1">
-        <v>14.4053</v>
+        <v>14.4057</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0061</v>
@@ -5674,10 +5677,10 @@
         <v>252593.7546</v>
       </c>
       <c r="K26" s="1">
-        <v>237058.9355</v>
+        <v>237063.6453</v>
       </c>
       <c r="L26" s="1">
-        <v>14.4284</v>
+        <v>14.4287</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.835</v>
@@ -5727,10 +5730,10 @@
         <v>285771.8934</v>
       </c>
       <c r="K27" s="1">
-        <v>273942.9757</v>
+        <v>273947.6855</v>
       </c>
       <c r="L27" s="1">
-        <v>14.2232</v>
+        <v>14.2235</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.4216</v>
@@ -5780,10 +5783,10 @@
         <v>306797.2206</v>
       </c>
       <c r="K28" s="1">
-        <v>267987.0933</v>
+        <v>268015.6049</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2315</v>
+        <v>14.233</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.2404</v>
@@ -5833,10 +5836,10 @@
         <v>294681.7879</v>
       </c>
       <c r="K29" s="1">
-        <v>266957.6557</v>
+        <v>266990.2777</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2306</v>
+        <v>14.2324</v>
       </c>
       <c r="M29" s="1">
         <v>0.4</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.382</v>
@@ -5886,10 +5889,10 @@
         <v>293153.0436</v>
       </c>
       <c r="K30" s="1">
-        <v>299201.9011</v>
+        <v>299234.5231</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1201</v>
+        <v>14.1216</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>11.9583</v>
@@ -5939,10 +5942,10 @@
         <v>293117.7279</v>
       </c>
       <c r="K31" s="1">
-        <v>327468.2126</v>
+        <v>327500.8346</v>
       </c>
       <c r="L31" s="1">
-        <v>13.9538</v>
+        <v>13.9551</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2036</v>
@@ -5992,10 +5995,10 @@
         <v>309191.4074</v>
       </c>
       <c r="K32" s="1">
-        <v>347470.4855</v>
+        <v>347503.1075</v>
       </c>
       <c r="L32" s="1">
-        <v>13.8228</v>
+        <v>13.8241</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9136</v>
@@ -6045,10 +6048,10 @@
         <v>346261.5946</v>
       </c>
       <c r="K33" s="1">
-        <v>351332.2889</v>
+        <v>351364.9109</v>
       </c>
       <c r="L33" s="1">
-        <v>13.8031</v>
+        <v>13.8043</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.4338</v>
@@ -6098,10 +6101,10 @@
         <v>369150.6835</v>
       </c>
       <c r="K34" s="1">
-        <v>343263.8914</v>
+        <v>343328.7508</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8247</v>
+        <v>13.8274</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9657</v>
@@ -6151,10 +6154,10 @@
         <v>367653.3948</v>
       </c>
       <c r="K35" s="1">
-        <v>340363.209</v>
+        <v>340439.6619</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8279</v>
+        <v>13.831</v>
       </c>
       <c r="M35" s="1">
         <v>0.3</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3568</v>
@@ -6204,10 +6207,10 @@
         <v>394468.3396</v>
       </c>
       <c r="K36" s="1">
-        <v>361946.7208</v>
+        <v>362023.1737</v>
       </c>
       <c r="L36" s="1">
-        <v>13.7751</v>
+        <v>13.778</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2487</v>
@@ -6257,10 +6260,10 @@
         <v>401635.2776</v>
       </c>
       <c r="K37" s="1">
-        <v>361690.3598</v>
+        <v>361767.8375</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7753</v>
+        <v>13.7783</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3991</v>
@@ -6310,10 +6313,10 @@
         <v>415670.6006</v>
       </c>
       <c r="K38" s="1">
-        <v>374574.8619</v>
+        <v>374652.3397</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7575</v>
+        <v>13.7604</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.5985</v>
@@ -6363,10 +6366,10 @@
         <v>440954.754</v>
       </c>
       <c r="K39" s="1">
-        <v>380511.8007</v>
+        <v>380589.2784</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7522</v>
+        <v>13.755</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.6955</v>
@@ -6416,10 +6419,10 @@
         <v>453647.1663</v>
       </c>
       <c r="K40" s="1">
-        <v>385023.6558</v>
+        <v>385101.1336</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7507</v>
+        <v>13.7535</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3398</v>
@@ -6469,10 +6472,10 @@
         <v>453488.5145</v>
       </c>
       <c r="K41" s="1">
-        <v>392342.4565</v>
+        <v>392419.9342</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7502</v>
+        <v>13.7529</v>
       </c>
       <c r="M41" s="1">
         <v>0.3</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.8469</v>
@@ -6522,10 +6525,10 @@
         <v>456332.4159</v>
       </c>
       <c r="K42" s="1">
-        <v>412552.6228</v>
+        <v>412630.1006</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7309</v>
+        <v>13.7335</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.129</v>
@@ -6575,10 +6578,10 @@
         <v>475234.9631</v>
       </c>
       <c r="K43" s="1">
-        <v>437431.391</v>
+        <v>437508.8687</v>
       </c>
       <c r="L43" s="1">
-        <v>13.679</v>
+        <v>13.6814</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.716</v>
@@ -6628,10 +6631,10 @@
         <v>472021.3124</v>
       </c>
       <c r="K44" s="1">
-        <v>438433.5103</v>
+        <v>438510.9881</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6778</v>
+        <v>13.6802</v>
       </c>
       <c r="M44" s="1">
         <v>0.3</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.4613</v>
@@ -6681,10 +6684,10 @@
         <v>481969.7802</v>
       </c>
       <c r="K45" s="1">
-        <v>461736.2444</v>
+        <v>461813.7221</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6272</v>
+        <v>13.6295</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.6545</v>
@@ -6734,10 +6737,10 @@
         <v>498716.3631</v>
       </c>
       <c r="K46" s="1">
-        <v>480424.0748</v>
+        <v>480501.5525</v>
       </c>
       <c r="L46" s="1">
-        <v>13.579</v>
+        <v>13.5812</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.2345</v>
@@ -6787,10 +6790,10 @@
         <v>493766.789</v>
       </c>
       <c r="K47" s="1">
-        <v>483615.5692</v>
+        <v>483693.047</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5726</v>
+        <v>13.5748</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.1636</v>
@@ -6840,10 +6843,10 @@
         <v>510623.7223</v>
       </c>
       <c r="K48" s="1">
-        <v>508652.4564</v>
+        <v>508729.9341</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5014</v>
+        <v>13.5035</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.8145</v>
@@ -6893,10 +6896,10 @@
         <v>507083.8382</v>
       </c>
       <c r="K49" s="1">
-        <v>521366.814</v>
+        <v>521444.2917</v>
       </c>
       <c r="L49" s="1">
-        <v>13.466</v>
+        <v>13.468</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.2352</v>
@@ -6946,10 +6949,10 @@
         <v>493451.4579</v>
       </c>
       <c r="K50" s="1">
-        <v>544950.123</v>
+        <v>545027.6007</v>
       </c>
       <c r="L50" s="1">
-        <v>13.3864</v>
+        <v>13.3883</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.8241</v>
@@ -6999,10 +7002,10 @@
         <v>496378.093</v>
       </c>
       <c r="K51" s="1">
-        <v>578622.8742</v>
+        <v>578700.3519</v>
       </c>
       <c r="L51" s="1">
-        <v>13.2407</v>
+        <v>13.2424</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.2543</v>
@@ -7052,10 +7055,10 @@
         <v>526141.0925</v>
       </c>
       <c r="K52" s="1">
-        <v>606665.3810000001</v>
+        <v>606742.8587</v>
       </c>
       <c r="L52" s="1">
-        <v>13.1069</v>
+        <v>13.1086</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.5675</v>
@@ -7105,10 +7108,10 @@
         <v>505019.2776</v>
       </c>
       <c r="K53" s="1">
-        <v>596750.5153</v>
+        <v>596867.6458000001</v>
       </c>
       <c r="L53" s="1">
-        <v>13.1423</v>
+        <v>13.1449</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>9.967000000000001</v>
@@ -7158,10 +7161,10 @@
         <v>497876.9278</v>
       </c>
       <c r="K54" s="1">
-        <v>632891.6077000001</v>
+        <v>633008.7382</v>
       </c>
       <c r="L54" s="1">
-        <v>12.9638</v>
+        <v>12.9662</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.0064</v>
@@ -7211,10 +7214,10 @@
         <v>509794.2151</v>
       </c>
       <c r="K55" s="1">
-        <v>655151.4414</v>
+        <v>655268.5719</v>
       </c>
       <c r="L55" s="1">
-        <v>12.8338</v>
+        <v>12.8361</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.0129</v>
@@ -7264,10 +7267,10 @@
         <v>520092.5214</v>
       </c>
       <c r="K56" s="1">
-        <v>665151.4414</v>
+        <v>665268.5719</v>
       </c>
       <c r="L56" s="1">
-        <v>12.78</v>
+        <v>12.7823</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.4583</v>
@@ -7317,10 +7320,10 @@
         <v>567682.6048</v>
       </c>
       <c r="K57" s="1">
-        <v>675151.4414</v>
+        <v>675268.5719</v>
       </c>
       <c r="L57" s="1">
-        <v>12.7284</v>
+        <v>12.7306</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.3341</v>
@@ -7370,10 +7373,10 @@
         <v>571004.0355999999</v>
       </c>
       <c r="K58" s="1">
-        <v>681546.8833</v>
+        <v>681664.0138</v>
       </c>
       <c r="L58" s="1">
-        <v>12.7028</v>
+        <v>12.705</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.884600000000001</v>
@@ -7423,10 +7426,10 @@
         <v>556144.0055</v>
       </c>
       <c r="K59" s="1">
-        <v>698266.7295</v>
+        <v>698383.86</v>
       </c>
       <c r="L59" s="1">
-        <v>12.6342</v>
+        <v>12.6363</v>
       </c>
       <c r="M59" s="1">
         <v>0.5</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.967499999999999</v>
@@ -7476,10 +7479,10 @@
         <v>595682.0664</v>
       </c>
       <c r="K60" s="1">
-        <v>719203.9168</v>
+        <v>719321.0473</v>
       </c>
       <c r="L60" s="1">
-        <v>12.5337</v>
+        <v>12.5357</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.4908</v>
@@ -7529,10 +7532,10 @@
         <v>636577.1948000001</v>
       </c>
       <c r="K61" s="1">
-        <v>738469.3725000001</v>
+        <v>738586.503</v>
       </c>
       <c r="L61" s="1">
-        <v>12.4508</v>
+        <v>12.4528</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.6308</v>
@@ -7582,10 +7585,10 @@
         <v>654583.0784</v>
       </c>
       <c r="K62" s="1">
-        <v>717413.1483999999</v>
+        <v>717614.4092</v>
       </c>
       <c r="L62" s="1">
-        <v>12.5186</v>
+        <v>12.5221</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.962</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2659</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4103</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.3976</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9013</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3527</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8804</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6268</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3636</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8711</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1252</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1934</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1176</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3311</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3637</v>
@@ -8456,10 +8459,10 @@
         <v>166510.7118</v>
       </c>
       <c r="K16" s="1">
-        <v>128151.2689</v>
+        <v>128154.6607</v>
       </c>
       <c r="L16" s="1">
-        <v>13.556</v>
+        <v>13.5563</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6447</v>
@@ -8509,10 +8512,10 @@
         <v>169197.6753</v>
       </c>
       <c r="K17" s="1">
-        <v>138608.0705</v>
+        <v>138611.4623</v>
       </c>
       <c r="L17" s="1">
-        <v>13.6792</v>
+        <v>13.6795</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.486</v>
@@ -8562,10 +8565,10 @@
         <v>197789.0413</v>
       </c>
       <c r="K18" s="1">
-        <v>156728.5234</v>
+        <v>156731.9153</v>
       </c>
       <c r="L18" s="1">
-        <v>13.7873</v>
+        <v>13.7876</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.1958</v>
@@ -8615,10 +8618,10 @@
         <v>215895.6684</v>
       </c>
       <c r="K19" s="1">
-        <v>158020.1426</v>
+        <v>158023.5345</v>
       </c>
       <c r="L19" s="1">
-        <v>13.7999</v>
+        <v>13.8001</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.4264</v>
@@ -8668,10 +8671,10 @@
         <v>228560.0329</v>
       </c>
       <c r="K20" s="1">
-        <v>160804.3371</v>
+        <v>160807.729</v>
       </c>
       <c r="L20" s="1">
-        <v>13.8357</v>
+        <v>13.836</v>
       </c>
       <c r="M20" s="1">
         <v>0.75</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>17.107</v>
@@ -8721,10 +8724,10 @@
         <v>254608.3763</v>
       </c>
       <c r="K21" s="1">
-        <v>169101.2632</v>
+        <v>169104.655</v>
       </c>
       <c r="L21" s="1">
-        <v>13.9448</v>
+        <v>13.945</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.8894</v>
@@ -8774,10 +8777,10 @@
         <v>261928.3509</v>
       </c>
       <c r="K22" s="1">
-        <v>171869.9872</v>
+        <v>171873.3791</v>
       </c>
       <c r="L22" s="1">
-        <v>13.9868</v>
+        <v>13.9871</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4004</v>
@@ -8827,10 +8830,10 @@
         <v>276538.8465</v>
       </c>
       <c r="K23" s="1">
-        <v>185642.9203</v>
+        <v>185646.3121</v>
       </c>
       <c r="L23" s="1">
-        <v>14.1692</v>
+        <v>14.1694</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3877</v>
@@ -8880,10 +8883,10 @@
         <v>272146.0382</v>
       </c>
       <c r="K24" s="1">
-        <v>203211.0772</v>
+        <v>203214.469</v>
       </c>
       <c r="L24" s="1">
-        <v>14.34</v>
+        <v>14.3402</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6367</v>
@@ -8933,10 +8936,10 @@
         <v>270179.0279</v>
       </c>
       <c r="K25" s="1">
-        <v>228795.5851</v>
+        <v>228798.9769</v>
       </c>
       <c r="L25" s="1">
-        <v>14.453</v>
+        <v>14.4532</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0061</v>
@@ -8986,10 +8989,10 @@
         <v>251754.6187</v>
       </c>
       <c r="K26" s="1">
-        <v>251968.4909</v>
+        <v>251971.8827</v>
       </c>
       <c r="L26" s="1">
-        <v>14.4724</v>
+        <v>14.4726</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.835</v>
@@ -9039,10 +9042,10 @@
         <v>286118.3459</v>
       </c>
       <c r="K27" s="1">
-        <v>287735.3758</v>
+        <v>287738.7677</v>
       </c>
       <c r="L27" s="1">
-        <v>14.2763</v>
+        <v>14.2764</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.4216</v>
@@ -9092,10 +9095,10 @@
         <v>307861.1296</v>
       </c>
       <c r="K28" s="1">
-        <v>286365.3059</v>
+        <v>286374.173</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2783</v>
+        <v>14.2787</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.2404</v>
@@ -9145,10 +9148,10 @@
         <v>294246.4588</v>
       </c>
       <c r="K29" s="1">
-        <v>286005.6818</v>
+        <v>286015.9849</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2781</v>
+        <v>14.2786</v>
       </c>
       <c r="M29" s="1">
         <v>0.4</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.382</v>
@@ -9198,10 +9201,10 @@
         <v>291883.5942</v>
       </c>
       <c r="K30" s="1">
-        <v>321202.479</v>
+        <v>321212.782</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1598</v>
+        <v>14.1603</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>11.9583</v>
@@ -9251,10 +9254,10 @@
         <v>291471.3967</v>
       </c>
       <c r="K31" s="1">
-        <v>342774.3081</v>
+        <v>342784.6111</v>
       </c>
       <c r="L31" s="1">
-        <v>14.035</v>
+        <v>14.0354</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2036</v>
@@ -9304,10 +9307,10 @@
         <v>307614.4225</v>
       </c>
       <c r="K32" s="1">
-        <v>352774.3081</v>
+        <v>352784.6111</v>
       </c>
       <c r="L32" s="1">
-        <v>13.9672</v>
+        <v>13.9676</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9136</v>
@@ -9357,10 +9360,10 @@
         <v>345143.931</v>
       </c>
       <c r="K33" s="1">
-        <v>362774.3081</v>
+        <v>362784.6111</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9126</v>
+        <v>13.913</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.4338</v>
@@ -9410,10 +9413,10 @@
         <v>369043.4762</v>
       </c>
       <c r="K34" s="1">
-        <v>372849.5193</v>
+        <v>372859.8224</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8844</v>
+        <v>13.8848</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9657</v>
@@ -9463,10 +9466,10 @@
         <v>366577.0473</v>
       </c>
       <c r="K35" s="1">
-        <v>370631.2838</v>
+        <v>370650.4527</v>
       </c>
       <c r="L35" s="1">
-        <v>13.887</v>
+        <v>13.8878</v>
       </c>
       <c r="M35" s="1">
         <v>0.3</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3568</v>
@@ -9516,10 +9519,10 @@
         <v>394834.1168</v>
       </c>
       <c r="K36" s="1">
-        <v>394984.082</v>
+        <v>395003.2509</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8283</v>
+        <v>13.829</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2487</v>
@@ -9569,10 +9572,10 @@
         <v>401743.6451</v>
       </c>
       <c r="K37" s="1">
-        <v>395686.5917</v>
+        <v>395705.7607</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8275</v>
+        <v>13.8281</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3991</v>
@@ -9622,10 +9625,10 @@
         <v>416149.0211</v>
       </c>
       <c r="K38" s="1">
-        <v>410741.63</v>
+        <v>410760.7989</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8064</v>
+        <v>13.8071</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.5985</v>
@@ -9675,10 +9678,10 @@
         <v>442860.86</v>
       </c>
       <c r="K39" s="1">
-        <v>418273.0208</v>
+        <v>418292.1898</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7994</v>
+        <v>13.8</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.6955</v>
@@ -9728,10 +9731,10 @@
         <v>455813.6944</v>
       </c>
       <c r="K40" s="1">
-        <v>424291.7998</v>
+        <v>424310.9687</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7969</v>
+        <v>13.7975</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3398</v>
@@ -9781,10 +9784,10 @@
         <v>454623.3407</v>
       </c>
       <c r="K41" s="1">
-        <v>433438.2329</v>
+        <v>433457.4018</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7953</v>
+        <v>13.7959</v>
       </c>
       <c r="M41" s="1">
         <v>0.3</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.8469</v>
@@ -9834,10 +9837,10 @@
         <v>456697.0097</v>
       </c>
       <c r="K42" s="1">
-        <v>456832.7307</v>
+        <v>456851.8996</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7727</v>
+        <v>13.7733</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.129</v>
@@ -9887,10 +9890,10 @@
         <v>476546.1313</v>
       </c>
       <c r="K43" s="1">
-        <v>485471.0877</v>
+        <v>485490.2567</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7161</v>
+        <v>13.7167</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.716</v>
@@ -9940,10 +9943,10 @@
         <v>471878.4048</v>
       </c>
       <c r="K44" s="1">
-        <v>487785.8513</v>
+        <v>487805.0202</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7133</v>
+        <v>13.7139</v>
       </c>
       <c r="M44" s="1">
         <v>0.3</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.4613</v>
@@ -9993,10 +9996,10 @@
         <v>481791.5647</v>
       </c>
       <c r="K45" s="1">
-        <v>514882.8972</v>
+        <v>514902.0662</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6585</v>
+        <v>13.659</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.6545</v>
@@ -10046,10 +10049,10 @@
         <v>499312.016</v>
       </c>
       <c r="K46" s="1">
-        <v>536945.5876</v>
+        <v>536964.7566</v>
       </c>
       <c r="L46" s="1">
-        <v>13.606</v>
+        <v>13.6065</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.2345</v>
@@ -10099,10 +10102,10 @@
         <v>492588.5059</v>
       </c>
       <c r="K47" s="1">
-        <v>541810.3554999999</v>
+        <v>541829.5244</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5971</v>
+        <v>13.5976</v>
       </c>
       <c r="M47" s="1">
         <v>0.3</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.1636</v>
@@ -10152,10 +10155,10 @@
         <v>510373.3809</v>
       </c>
       <c r="K48" s="1">
-        <v>557861.2784</v>
+        <v>557880.4473</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5545</v>
+        <v>13.555</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.8145</v>
@@ -10205,10 +10208,10 @@
         <v>505358.0092</v>
       </c>
       <c r="K49" s="1">
-        <v>578620.0947</v>
+        <v>578639.2637</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5002</v>
+        <v>13.5007</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.2352</v>
@@ -10258,10 +10261,10 @@
         <v>490047.9812</v>
       </c>
       <c r="K50" s="1">
-        <v>588620.0947</v>
+        <v>588639.2637</v>
       </c>
       <c r="L50" s="1">
-        <v>13.4681</v>
+        <v>13.4685</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.8241</v>
@@ -10311,10 +10314,10 @@
         <v>493511.7739</v>
       </c>
       <c r="K51" s="1">
-        <v>598620.0947</v>
+        <v>598639.2637</v>
       </c>
       <c r="L51" s="1">
-        <v>13.4241</v>
+        <v>13.4245</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.2543</v>
@@ -10364,10 +10367,10 @@
         <v>523435.8788</v>
       </c>
       <c r="K52" s="1">
-        <v>620420.3707</v>
+        <v>620439.5397</v>
       </c>
       <c r="L52" s="1">
-        <v>13.3129</v>
+        <v>13.3133</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.5675</v>
@@ -10417,10 +10420,10 @@
         <v>500846.3797</v>
       </c>
       <c r="K53" s="1">
-        <v>630420.3707</v>
+        <v>630439.5397</v>
       </c>
       <c r="L53" s="1">
-        <v>13.2749</v>
+        <v>13.2753</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>9.967000000000001</v>
@@ -10470,10 +10473,10 @@
         <v>494602.061</v>
       </c>
       <c r="K54" s="1">
-        <v>640420.3707</v>
+        <v>640439.5397</v>
       </c>
       <c r="L54" s="1">
-        <v>13.2225</v>
+        <v>13.2229</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.0064</v>
@@ -10523,10 +10526,10 @@
         <v>506504.1539</v>
       </c>
       <c r="K55" s="1">
-        <v>663242.6155</v>
+        <v>663261.7845</v>
       </c>
       <c r="L55" s="1">
-        <v>13.0767</v>
+        <v>13.0771</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.0129</v>
@@ -10576,10 +10579,10 @@
         <v>516800.3188</v>
       </c>
       <c r="K56" s="1">
-        <v>673242.6155</v>
+        <v>673261.7845</v>
       </c>
       <c r="L56" s="1">
-        <v>13.0179</v>
+        <v>13.0183</v>
       </c>
       <c r="M56" s="1">
         <v>0.3</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.4583</v>
@@ -10629,10 +10632,10 @@
         <v>564155.0071</v>
       </c>
       <c r="K57" s="1">
-        <v>683242.6155</v>
+        <v>683261.7845</v>
       </c>
       <c r="L57" s="1">
-        <v>12.9614</v>
+        <v>12.9618</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.3341</v>
@@ -10682,10 +10685,10 @@
         <v>567239.1663</v>
       </c>
       <c r="K58" s="1">
-        <v>707206.1382</v>
+        <v>707225.3072</v>
       </c>
       <c r="L58" s="1">
-        <v>12.8582</v>
+        <v>12.8586</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.884600000000001</v>
@@ -10735,10 +10738,10 @@
         <v>552092.8615999999</v>
       </c>
       <c r="K59" s="1">
-        <v>717206.1382</v>
+        <v>717225.3072</v>
       </c>
       <c r="L59" s="1">
-        <v>12.815</v>
+        <v>12.8154</v>
       </c>
       <c r="M59" s="1">
         <v>0.5</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.967499999999999</v>
@@ -10788,10 +10791,10 @@
         <v>591955.1344</v>
       </c>
       <c r="K60" s="1">
-        <v>727206.1382</v>
+        <v>727225.3072</v>
       </c>
       <c r="L60" s="1">
-        <v>12.7635</v>
+        <v>12.7638</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.4908</v>
@@ -10841,10 +10844,10 @@
         <v>633406.8725000001</v>
       </c>
       <c r="K61" s="1">
-        <v>762390.8138</v>
+        <v>762409.9828</v>
       </c>
       <c r="L61" s="1">
-        <v>12.6018</v>
+        <v>12.6021</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.6308</v>
@@ -10894,10 +10897,10 @@
         <v>651951.4518</v>
       </c>
       <c r="K62" s="1">
-        <v>772390.8138</v>
+        <v>772409.9828</v>
       </c>
       <c r="L62" s="1">
-        <v>12.5695</v>
+        <v>12.5698</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.962</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2659</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4103</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.3976</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9013</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3527</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8804</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6268</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3636</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8711</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1252</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1934</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1176</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3311</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3637</v>
@@ -11768,10 +11771,10 @@
         <v>167085.3127</v>
       </c>
       <c r="K16" s="1">
-        <v>132611.1091</v>
+        <v>132613.0688</v>
       </c>
       <c r="L16" s="1">
-        <v>13.5743</v>
+        <v>13.5745</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6447</v>
@@ -11821,10 +11824,10 @@
         <v>169506.9743</v>
       </c>
       <c r="K17" s="1">
-        <v>143832.1995</v>
+        <v>143834.1592</v>
       </c>
       <c r="L17" s="1">
-        <v>13.7006</v>
+        <v>13.7008</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.486</v>
@@ -11874,10 +11877,10 @@
         <v>198792.6003</v>
       </c>
       <c r="K18" s="1">
-        <v>163052.154</v>
+        <v>163054.1137</v>
       </c>
       <c r="L18" s="1">
-        <v>13.8086</v>
+        <v>13.8088</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.1958</v>
@@ -11927,10 +11930,10 @@
         <v>217233.1651</v>
       </c>
       <c r="K19" s="1">
-        <v>164871.2118</v>
+        <v>164873.1715</v>
       </c>
       <c r="L19" s="1">
-        <v>13.8254</v>
+        <v>13.8256</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.4264</v>
@@ -11980,10 +11983,10 @@
         <v>230013.0962</v>
       </c>
       <c r="K20" s="1">
-        <v>168280.0347</v>
+        <v>168281.9944</v>
       </c>
       <c r="L20" s="1">
-        <v>13.867</v>
+        <v>13.8672</v>
       </c>
       <c r="M20" s="1">
         <v>0.75</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>17.107</v>
@@ -12033,10 +12036,10 @@
         <v>256789.7928</v>
       </c>
       <c r="K21" s="1">
-        <v>177484.7087</v>
+        <v>177486.6684</v>
       </c>
       <c r="L21" s="1">
-        <v>13.9812</v>
+        <v>13.9814</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.8894</v>
@@ -12086,10 +12089,10 @@
         <v>263974.6591</v>
       </c>
       <c r="K22" s="1">
-        <v>180957.5556</v>
+        <v>180959.5153</v>
       </c>
       <c r="L22" s="1">
-        <v>14.0308</v>
+        <v>14.031</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4004</v>
@@ -12139,10 +12142,10 @@
         <v>278793.7355</v>
       </c>
       <c r="K23" s="1">
-        <v>196020.8823</v>
+        <v>196022.842</v>
       </c>
       <c r="L23" s="1">
-        <v>14.2176</v>
+        <v>14.2177</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3877</v>
@@ -12192,10 +12195,10 @@
         <v>273606.0451</v>
       </c>
       <c r="K24" s="1">
-        <v>215149.4428</v>
+        <v>215151.4025</v>
       </c>
       <c r="L24" s="1">
-        <v>14.3901</v>
+        <v>14.3902</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6367</v>
@@ -12245,10 +12248,10 @@
         <v>270944.5524</v>
       </c>
       <c r="K25" s="1">
-        <v>242818.3591</v>
+        <v>242820.3188</v>
       </c>
       <c r="L25" s="1">
-        <v>14.5003</v>
+        <v>14.5004</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0061</v>
@@ -12298,10 +12301,10 @@
         <v>250794.671</v>
       </c>
       <c r="K26" s="1">
-        <v>268041.7226</v>
+        <v>268043.6823</v>
       </c>
       <c r="L26" s="1">
-        <v>14.5157</v>
+        <v>14.5158</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.835</v>
@@ -12351,10 +12354,10 @@
         <v>285634.4376</v>
       </c>
       <c r="K27" s="1">
-        <v>289150.843</v>
+        <v>289152.8027</v>
       </c>
       <c r="L27" s="1">
-        <v>14.3961</v>
+        <v>14.3962</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.4216</v>
@@ -12404,10 +12407,10 @@
         <v>308082.8651</v>
       </c>
       <c r="K28" s="1">
-        <v>307154.1953</v>
+        <v>307156.155</v>
       </c>
       <c r="L28" s="1">
-        <v>14.3637</v>
+        <v>14.3638</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.2404</v>
@@ -12457,10 +12460,10 @@
         <v>292836.0484</v>
       </c>
       <c r="K29" s="1">
-        <v>307588.1162</v>
+        <v>307590.0759</v>
       </c>
       <c r="L29" s="1">
-        <v>14.3638</v>
+        <v>14.3639</v>
       </c>
       <c r="M29" s="1">
         <v>0.4</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.382</v>
@@ -12510,10 +12513,10 @@
         <v>290837.0407</v>
       </c>
       <c r="K30" s="1">
-        <v>327460.3705</v>
+        <v>327462.3302</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2921</v>
+        <v>14.2922</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>11.9583</v>
@@ -12563,10 +12566,10 @@
         <v>290475.5651</v>
       </c>
       <c r="K31" s="1">
-        <v>345169.447</v>
+        <v>345171.4067</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1815</v>
+        <v>14.1816</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2036</v>
@@ -12616,10 +12619,10 @@
         <v>306598.1642</v>
       </c>
       <c r="K32" s="1">
-        <v>355169.447</v>
+        <v>355171.4067</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1086</v>
+        <v>14.1087</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9136</v>
@@ -12669,7 +12672,7 @@
         <v>344038.5065</v>
       </c>
       <c r="K33" s="1">
-        <v>365169.447</v>
+        <v>365171.4067</v>
       </c>
       <c r="L33" s="1">
         <v>14.0495</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.4338</v>
@@ -12722,10 +12725,10 @@
         <v>368219.3793</v>
       </c>
       <c r="K34" s="1">
-        <v>384232.057</v>
+        <v>384234.0167</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9899</v>
+        <v>13.99</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9657</v>
@@ -12775,10 +12778,10 @@
         <v>365003.5388</v>
       </c>
       <c r="K35" s="1">
-        <v>394232.057</v>
+        <v>394234.0167</v>
       </c>
       <c r="L35" s="1">
-        <v>13.976</v>
+        <v>13.9761</v>
       </c>
       <c r="M35" s="1">
         <v>0.3</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3568</v>
@@ -12828,10 +12831,10 @@
         <v>393889.6358</v>
       </c>
       <c r="K36" s="1">
-        <v>404232.057</v>
+        <v>404234.0167</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9498</v>
+        <v>13.9499</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2487</v>
@@ -12881,10 +12884,10 @@
         <v>400550.517</v>
       </c>
       <c r="K37" s="1">
-        <v>421848.1681</v>
+        <v>421850.1278</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9252</v>
+        <v>13.9253</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3991</v>
@@ -12934,7 +12937,7 @@
         <v>415170.7584</v>
       </c>
       <c r="K38" s="1">
-        <v>431848.1681</v>
+        <v>431850.1278</v>
       </c>
       <c r="L38" s="1">
         <v>13.9095</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.5985</v>
@@ -12987,10 +12990,10 @@
         <v>442634.3696</v>
       </c>
       <c r="K39" s="1">
-        <v>441848.1681</v>
+        <v>441850.1278</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8981</v>
+        <v>13.8982</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.6955</v>
@@ -13040,10 +13043,10 @@
         <v>455777.7234</v>
       </c>
       <c r="K40" s="1">
-        <v>463025.114</v>
+        <v>463027.0737</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8854</v>
+        <v>13.8855</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3398</v>
@@ -13093,7 +13096,7 @@
         <v>453641.2357</v>
       </c>
       <c r="K41" s="1">
-        <v>473025.114</v>
+        <v>473027.0737</v>
       </c>
       <c r="L41" s="1">
         <v>13.882</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.8469</v>
@@ -13146,7 +13149,7 @@
         <v>455672.0771</v>
       </c>
       <c r="K42" s="1">
-        <v>483025.114</v>
+        <v>483027.0737</v>
       </c>
       <c r="L42" s="1">
         <v>13.8709</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.129</v>
@@ -13199,7 +13202,7 @@
         <v>475817.9417</v>
       </c>
       <c r="K43" s="1">
-        <v>502225.3103</v>
+        <v>502227.27</v>
       </c>
       <c r="L43" s="1">
         <v>13.8299</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.716</v>
@@ -13252,7 +13255,7 @@
         <v>470499.4964</v>
       </c>
       <c r="K44" s="1">
-        <v>512225.3103</v>
+        <v>512227.27</v>
       </c>
       <c r="L44" s="1">
         <v>13.8161</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.4613</v>
@@ -13305,7 +13308,7 @@
         <v>480845.822</v>
       </c>
       <c r="K45" s="1">
-        <v>522225.3103</v>
+        <v>522227.27</v>
       </c>
       <c r="L45" s="1">
         <v>13.7938</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.6545</v>
@@ -13358,7 +13361,7 @@
         <v>498374.1373</v>
       </c>
       <c r="K46" s="1">
-        <v>542235.4645999999</v>
+        <v>542237.4243</v>
       </c>
       <c r="L46" s="1">
         <v>13.7407</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.2345</v>
@@ -13411,7 +13414,7 @@
         <v>491461.0589</v>
       </c>
       <c r="K47" s="1">
-        <v>552235.4645999999</v>
+        <v>552237.4243</v>
       </c>
       <c r="L47" s="1">
         <v>13.7199</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.1636</v>
@@ -13464,7 +13467,7 @@
         <v>509385.3811</v>
       </c>
       <c r="K48" s="1">
-        <v>562235.4645999999</v>
+        <v>562237.4243</v>
       </c>
       <c r="L48" s="1">
         <v>13.6909</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.8145</v>
@@ -13517,10 +13520,10 @@
         <v>504397.9426</v>
       </c>
       <c r="K49" s="1">
-        <v>583103.1539</v>
+        <v>583105.1136</v>
       </c>
       <c r="L49" s="1">
-        <v>13.6307</v>
+        <v>13.6308</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.2352</v>
@@ -13570,10 +13573,10 @@
         <v>489134.9942</v>
       </c>
       <c r="K50" s="1">
-        <v>593103.1539</v>
+        <v>593105.1136</v>
       </c>
       <c r="L50" s="1">
-        <v>13.596</v>
+        <v>13.5961</v>
       </c>
       <c r="M50" s="1">
         <v>0.3</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.8241</v>
@@ -13623,7 +13626,7 @@
         <v>492610.2106</v>
       </c>
       <c r="K51" s="1">
-        <v>603103.1539</v>
+        <v>603105.1136</v>
       </c>
       <c r="L51" s="1">
         <v>13.5494</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.2543</v>
@@ -13676,7 +13679,7 @@
         <v>522498.5695</v>
       </c>
       <c r="K52" s="1">
-        <v>624881.4453</v>
+        <v>624883.405</v>
       </c>
       <c r="L52" s="1">
         <v>13.4327</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.5675</v>
@@ -13729,10 +13732,10 @@
         <v>499966.268</v>
       </c>
       <c r="K53" s="1">
-        <v>634881.4453</v>
+        <v>634883.405</v>
       </c>
       <c r="L53" s="1">
-        <v>13.3923</v>
+        <v>13.3924</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>9.967000000000001</v>
@@ -13782,7 +13785,7 @@
         <v>493749.4299</v>
       </c>
       <c r="K54" s="1">
-        <v>644881.4453</v>
+        <v>644883.405</v>
       </c>
       <c r="L54" s="1">
         <v>13.3376</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.0064</v>
@@ -13835,7 +13838,7 @@
         <v>505648.2445</v>
       </c>
       <c r="K55" s="1">
-        <v>667681.1581999999</v>
+        <v>667683.1179</v>
       </c>
       <c r="L55" s="1">
         <v>13.1865</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.0129</v>
@@ -13888,7 +13891,7 @@
         <v>515943.8523</v>
       </c>
       <c r="K56" s="1">
-        <v>677681.1581999999</v>
+        <v>677683.1179</v>
       </c>
       <c r="L56" s="1">
         <v>13.1255</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.4583</v>
@@ -13941,7 +13944,7 @@
         <v>563237.3025</v>
       </c>
       <c r="K57" s="1">
-        <v>687681.1581999999</v>
+        <v>687683.1179</v>
       </c>
       <c r="L57" s="1">
         <v>13.0669</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.3341</v>
@@ -13994,10 +13997,10 @@
         <v>566332.4558</v>
       </c>
       <c r="K58" s="1">
-        <v>711621.5399</v>
+        <v>711623.4996</v>
       </c>
       <c r="L58" s="1">
-        <v>12.9592</v>
+        <v>12.9593</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.884600000000001</v>
@@ -14047,10 +14050,10 @@
         <v>551225.5901</v>
       </c>
       <c r="K59" s="1">
-        <v>721621.5399</v>
+        <v>721623.4996</v>
       </c>
       <c r="L59" s="1">
-        <v>12.9142</v>
+        <v>12.9143</v>
       </c>
       <c r="M59" s="1">
         <v>0.5</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.967499999999999</v>
@@ -14100,7 +14103,7 @@
         <v>591041.0215</v>
       </c>
       <c r="K60" s="1">
-        <v>731621.5399</v>
+        <v>731623.4996</v>
       </c>
       <c r="L60" s="1">
         <v>12.8608</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.4908</v>
@@ -14153,10 +14156,10 @@
         <v>632444.9394</v>
       </c>
       <c r="K61" s="1">
-        <v>766766.6534</v>
+        <v>766768.6131</v>
       </c>
       <c r="L61" s="1">
-        <v>12.6934</v>
+        <v>12.6935</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.6308</v>
@@ -14206,7 +14209,7 @@
         <v>650976.6835</v>
       </c>
       <c r="K62" s="1">
-        <v>776766.6534</v>
+        <v>776768.6131</v>
       </c>
       <c r="L62" s="1">
         <v>12.6596</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.962</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-19</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2659</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-18</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4103</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.3976</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-16</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9013</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3527</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8804</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6268</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3636</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8711</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1252</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1934</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1176</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3311</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3637</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6447</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.486</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-3</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.1958</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.4264</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>17.107</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.8894</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4004</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3877</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6367</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0061</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.835</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.4216</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.2404</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.382</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>11.9583</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2036</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9136</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.4338</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9657</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3568</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2487</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3991</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.5985</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.6955</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.3398</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.8469</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.129</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.716</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.4613</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.6545</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.2345</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.1636</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.8145</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.2352</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.8241</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.2543</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.5675</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>9.967000000000001</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.0064</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.0129</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.4583</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.3341</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>9.884600000000001</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>9.967499999999999</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.4908</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.6308</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -17597,10 +17600,10 @@
         <v>12.4693</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5186</v>
+        <v>12.5221</v>
       </c>
       <c r="E3" s="1">
-        <v>12.5695</v>
+        <v>12.5698</v>
       </c>
       <c r="F3" s="1">
         <v>12.6596</v>
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>178641.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8508</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9122</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.844</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8381</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8349</v>
       </c>
     </row>
   </sheetData>
